--- a/Project3_Performance_Evaluations.xlsx
+++ b/Project3_Performance_Evaluations.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4DAA562-52A9-4798-872A-E6FF7B820D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ethan\VS Projects\DBMS\Database_project3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1565B28-A65E-48AF-8866-72B221D3398F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -121,7 +126,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,10 +162,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,13 +461,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -528,16 +532,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1075,16 +1079,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>5.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1149,16 +1153,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>4.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>10.199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>14.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2911,31 +2915,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" customWidth="1"/>
-    <col min="17" max="17" width="12.85546875" customWidth="1"/>
-    <col min="18" max="18" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" customWidth="1"/>
+    <col min="16" max="16" width="11.88671875" customWidth="1"/>
+    <col min="17" max="17" width="12.88671875" customWidth="1"/>
+    <col min="18" max="18" width="13.5546875" customWidth="1"/>
     <col min="19" max="19" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -2949,7 +2953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2999,18 +3003,30 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>20</v>
       </c>
       <c r="B3">
         <v>5</v>
       </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
       <c r="F3">
         <v>2387</v>
       </c>
       <c r="G3">
         <v>12</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>11</v>
       </c>
       <c r="J3" t="s">
         <v>10</v>
@@ -3023,13 +3039,13 @@
         <f>AVERAGE(B3:B7)</f>
         <v>1.6</v>
       </c>
-      <c r="M3" s="1" t="e">
+      <c r="M3" s="1">
         <f>AVERAGE(C3:C7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N3" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
         <f>AVERAGE(D3:D7)</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="O3" t="s">
         <v>6</v>
@@ -3051,17 +3067,29 @@
         <v>67657.2</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
       <c r="F4">
         <v>1883</v>
       </c>
       <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
         <v>4</v>
       </c>
       <c r="J4" t="s">
@@ -3075,18 +3103,18 @@
         <f>AVERAGE(B9:B13)</f>
         <v>1.6</v>
       </c>
-      <c r="M4" t="e">
+      <c r="M4">
         <f>AVERAGE(C9:C13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N4" t="e">
+        <v>0.2</v>
+      </c>
+      <c r="N4">
         <f>AVERAGE(D9:D13)</f>
-        <v>#DIV/0!</v>
+        <v>0.2</v>
       </c>
       <c r="O4" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4">
         <f>AVERAGE(G3:G7)</f>
         <v>6.2</v>
       </c>
@@ -3103,18 +3131,30 @@
         <v>27.2</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>8</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
       <c r="F5">
         <v>4089</v>
       </c>
       <c r="G5">
         <v>4</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
@@ -3127,46 +3167,58 @@
         <f>AVERAGE(B15:B19)</f>
         <v>2.8</v>
       </c>
-      <c r="M5" s="1" t="e">
+      <c r="M5" s="1">
         <f>AVERAGE(C15:C19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N5" s="1" t="e">
+        <v>0.2</v>
+      </c>
+      <c r="N5" s="1">
         <f>AVERAGE(D15:D19)</f>
-        <v>#DIV/0!</v>
+        <v>0.4</v>
       </c>
       <c r="O5" t="s">
         <v>8</v>
       </c>
-      <c r="P5" t="e">
+      <c r="P5">
         <f>AVERAGE(H3:H7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q5" t="e">
+        <v>2</v>
+      </c>
+      <c r="Q5">
         <f>AVERAGE(H9:H13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R5" t="e">
+        <v>5.6</v>
+      </c>
+      <c r="R5">
         <f>AVERAGE(H21:H25)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S5" t="e">
+        <v>11</v>
+      </c>
+      <c r="S5">
         <f>AVERAGE(H21:H25)</f>
-        <v>#DIV/0!</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
       <c r="F6">
         <v>1939</v>
       </c>
       <c r="G6">
         <v>6</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
       </c>
       <c r="J6" t="s">
         <v>16</v>
@@ -3179,49 +3231,61 @@
         <f>AVERAGE(B21:B25)</f>
         <v>2</v>
       </c>
-      <c r="M6" t="e">
+      <c r="M6">
         <f>AVERAGE(C21:C25)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N6" t="e">
+        <v>0.2</v>
+      </c>
+      <c r="N6">
         <f>AVERAGE(D21:D25)</f>
-        <v>#DIV/0!</v>
+        <v>0.4</v>
       </c>
       <c r="O6" t="s">
         <v>9</v>
       </c>
-      <c r="P6" t="e">
+      <c r="P6">
         <f>AVERAGE(I3:I7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q6" t="e">
+        <v>4.2</v>
+      </c>
+      <c r="Q6">
         <f>AVERAGE(I9:I13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R6" t="e">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="R6">
         <f>AVERAGE(I15:I19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S6" s="1" t="e">
+        <v>14.2</v>
+      </c>
+      <c r="S6" s="1">
         <f>AVERAGE(I21:I25)</f>
-        <v>#DIV/0!</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
       <c r="F7">
         <v>1940</v>
       </c>
       <c r="G7">
         <v>5</v>
       </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -3248,18 +3312,30 @@
       </c>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
       <c r="F9">
         <v>13630</v>
       </c>
       <c r="G9">
         <v>23</v>
+      </c>
+      <c r="H9">
+        <v>10</v>
+      </c>
+      <c r="I9">
+        <v>19</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -3270,64 +3346,112 @@
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>4</v>
       </c>
       <c r="B10">
         <v>3</v>
       </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
       <c r="F10">
         <v>13217</v>
       </c>
       <c r="G10">
         <v>11</v>
       </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <v>8</v>
+      </c>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
       <c r="F11">
         <v>20237</v>
       </c>
       <c r="G11">
         <v>11</v>
       </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>9</v>
+      </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
       <c r="F12">
         <v>14180</v>
       </c>
       <c r="G12">
         <v>9</v>
       </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="I12">
+        <v>8</v>
+      </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
       <c r="F13">
         <v>13270</v>
       </c>
       <c r="G13">
         <v>12</v>
       </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <v>7</v>
+      </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -3353,18 +3477,30 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
       <c r="F15">
         <v>31837</v>
       </c>
       <c r="G15">
         <v>24</v>
+      </c>
+      <c r="H15">
+        <v>9</v>
+      </c>
+      <c r="I15">
+        <v>17</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -3375,63 +3511,111 @@
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
       <c r="F16">
         <v>27788</v>
       </c>
       <c r="G16">
         <v>18</v>
       </c>
+      <c r="H16">
+        <v>9</v>
+      </c>
+      <c r="I16">
+        <v>15</v>
+      </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2</v>
       </c>
       <c r="B17">
         <v>9</v>
       </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
       <c r="F17">
         <v>30053</v>
       </c>
       <c r="G17">
         <v>24</v>
       </c>
+      <c r="H17">
+        <v>7</v>
+      </c>
+      <c r="I17">
+        <v>12</v>
+      </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
       <c r="F18">
         <v>28543</v>
       </c>
       <c r="G18">
         <v>16</v>
       </c>
+      <c r="H18">
+        <v>8</v>
+      </c>
+      <c r="I18">
+        <v>14</v>
+      </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
       <c r="F19">
         <v>26399</v>
       </c>
       <c r="G19">
         <v>20</v>
       </c>
+      <c r="H19">
+        <v>8</v>
+      </c>
+      <c r="I19">
+        <v>13</v>
+      </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -3457,18 +3641,30 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>7</v>
       </c>
       <c r="B21">
         <v>6</v>
       </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
       <c r="F21">
         <v>67486</v>
       </c>
       <c r="G21">
         <v>25</v>
+      </c>
+      <c r="H21">
+        <v>11</v>
+      </c>
+      <c r="I21">
+        <v>19</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -3479,60 +3675,108 @@
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>4</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
       <c r="F22">
         <v>73624</v>
       </c>
       <c r="G22">
         <v>22</v>
       </c>
+      <c r="H22">
+        <v>11</v>
+      </c>
+      <c r="I22">
+        <v>20</v>
+      </c>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2</v>
       </c>
       <c r="B23">
         <v>3</v>
       </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
       <c r="F23">
         <v>65108</v>
       </c>
       <c r="G23">
         <v>30</v>
       </c>
+      <c r="H23">
+        <v>11</v>
+      </c>
+      <c r="I23">
+        <v>18</v>
+      </c>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>4</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
       <c r="F24">
         <v>71819</v>
       </c>
       <c r="G24">
         <v>39</v>
       </c>
+      <c r="H24">
+        <v>11</v>
+      </c>
+      <c r="I24">
+        <v>19</v>
+      </c>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
       <c r="F25">
         <v>60249</v>
       </c>
       <c r="G25">
         <v>20</v>
+      </c>
+      <c r="H25">
+        <v>11</v>
+      </c>
+      <c r="I25">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
